--- a/ebola_par_review.xlsx
+++ b/ebola_par_review.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,28 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t xml:space="preserve">Table 2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">doi: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">10.3201/eid2108.141613</t>
-    </r>
+    <t xml:space="preserve">doi: 10.3201/eid2108.141613</t>
   </si>
   <si>
     <t xml:space="preserve">Estimated values of parameters as identified in the Ebola modeling articles*</t>
@@ -241,6 +226,33 @@
   </si>
   <si>
     <t xml:space="preserve">Do 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latent period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,12 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infectious period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,16 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initial infections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,10 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asher 2018</t>
   </si>
 </sst>
 </file>
@@ -255,6 +267,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -276,29 +289,34 @@
       <sz val="22"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -343,56 +361,60 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -415,296 +437,296 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="56.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="56.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -716,7 +738,7 @@
     <mergeCell ref="A19:F19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1" display="10.3201/eid2108.141613"/>
+    <hyperlink ref="G1" r:id="rId1" display="doi: 10.3201/eid2108.141613"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -735,87 +757,87 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B2" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="118.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="6.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="118.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="12" width="6.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -831,4 +853,65 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>